--- a/data-migration/xlsx_1900-/1921_Winter.xlsx
+++ b/data-migration/xlsx_1900-/1921_Winter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\TEMP REPOSITORY\VVZ 1833-2014\_WEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F750153-6D37-4F73-8828-43875DEAF2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D7211D-F6F1-4812-8142-5F4E9E9D081C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19635" yWindow="-20280" windowWidth="27315" windowHeight="19110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3443" uniqueCount="1441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3443" uniqueCount="1442">
   <si>
     <t>Winter</t>
   </si>
@@ -4171,9 +4171,6 @@
     <t>vontuhr_a</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>pfenninger_hf</t>
   </si>
   <si>
@@ -4201,9 +4198,6 @@
     <t>bloch_b</t>
   </si>
   <si>
-    <t>walthard _m</t>
-  </si>
-  <si>
     <t>meyerrueegg_h</t>
   </si>
   <si>
@@ -4225,9 +4219,6 @@
     <t>silberschmidt _w</t>
   </si>
   <si>
-    <t>nager _fr</t>
-  </si>
-  <si>
     <t>gysi_a</t>
   </si>
   <si>
@@ -4343,6 +4334,18 @@
   </si>
   <si>
     <t>graenacher_c</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>walthard_m</t>
+  </si>
+  <si>
+    <t>nager_fr</t>
   </si>
 </sst>
 </file>
@@ -4686,8 +4689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D366" workbookViewId="0">
-      <selection activeCell="H410" sqref="H410"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="H171" sqref="H171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4721,7 +4724,7 @@
         <v>1266</v>
       </c>
       <c r="I1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4747,7 +4750,7 @@
         <v>1267</v>
       </c>
       <c r="I2" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4770,10 +4773,10 @@
         <v>964</v>
       </c>
       <c r="H3" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="I3" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4796,10 +4799,10 @@
         <v>965</v>
       </c>
       <c r="H4" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="I4" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4825,7 +4828,7 @@
         <v>1266</v>
       </c>
       <c r="I5" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4848,13 +4851,13 @@
         <v>967</v>
       </c>
       <c r="H6" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="I6" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J6" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4880,7 +4883,7 @@
         <v>1269</v>
       </c>
       <c r="I7" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4903,13 +4906,13 @@
         <v>969</v>
       </c>
       <c r="H8" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="I8" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J8" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4932,10 +4935,10 @@
         <v>970</v>
       </c>
       <c r="H9" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="I9" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4961,7 +4964,7 @@
         <v>1266</v>
       </c>
       <c r="I10" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4987,7 +4990,7 @@
         <v>1268</v>
       </c>
       <c r="I11" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5013,7 +5016,7 @@
         <v>1268</v>
       </c>
       <c r="I12" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5039,7 +5042,7 @@
         <v>1381</v>
       </c>
       <c r="I13" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -5065,7 +5068,7 @@
         <v>1381</v>
       </c>
       <c r="I14" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -5091,7 +5094,7 @@
         <v>1381</v>
       </c>
       <c r="I15" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -5117,7 +5120,7 @@
         <v>1381</v>
       </c>
       <c r="I16" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -5143,7 +5146,7 @@
         <v>1269</v>
       </c>
       <c r="I17" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -5169,7 +5172,7 @@
         <v>1267</v>
       </c>
       <c r="I18" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5192,13 +5195,13 @@
         <v>980</v>
       </c>
       <c r="H19" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="I19" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J19" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -5224,7 +5227,7 @@
         <v>1266</v>
       </c>
       <c r="I20" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5250,7 +5253,7 @@
         <v>1268</v>
       </c>
       <c r="I21" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5273,13 +5276,13 @@
         <v>983</v>
       </c>
       <c r="H22" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="I22" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J22" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -5305,7 +5308,7 @@
         <v>1270</v>
       </c>
       <c r="I23" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -5331,7 +5334,7 @@
         <v>1271</v>
       </c>
       <c r="I24" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5357,7 +5360,7 @@
         <v>1382</v>
       </c>
       <c r="I25" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5383,7 +5386,7 @@
         <v>1382</v>
       </c>
       <c r="I26" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -5409,7 +5412,7 @@
         <v>1272</v>
       </c>
       <c r="I27" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -5435,7 +5438,7 @@
         <v>1273</v>
       </c>
       <c r="I28" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5461,7 +5464,7 @@
         <v>1272</v>
       </c>
       <c r="I29" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5484,10 +5487,10 @@
         <v>991</v>
       </c>
       <c r="H30" t="s">
-        <v>1383</v>
+        <v>1438</v>
       </c>
       <c r="I30" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5513,7 +5516,7 @@
         <v>1273</v>
       </c>
       <c r="I31" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5539,7 +5542,7 @@
         <v>1273</v>
       </c>
       <c r="I32" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -5565,7 +5568,7 @@
         <v>1275</v>
       </c>
       <c r="I33" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -5591,7 +5594,7 @@
         <v>1275</v>
       </c>
       <c r="I34" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -5617,7 +5620,7 @@
         <v>1270</v>
       </c>
       <c r="I35" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -5643,7 +5646,7 @@
         <v>1270</v>
       </c>
       <c r="I36" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -5669,7 +5672,7 @@
         <v>1276</v>
       </c>
       <c r="I37" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -5692,10 +5695,10 @@
         <v>998</v>
       </c>
       <c r="H38" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I38" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -5718,10 +5721,10 @@
         <v>999</v>
       </c>
       <c r="H39" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I39" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -5744,10 +5747,10 @@
         <v>1000</v>
       </c>
       <c r="H40" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I40" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -5773,7 +5776,7 @@
         <v>1278</v>
       </c>
       <c r="I41" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -5799,7 +5802,7 @@
         <v>1278</v>
       </c>
       <c r="I42" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -5825,7 +5828,7 @@
         <v>1278</v>
       </c>
       <c r="I43" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -5851,7 +5854,7 @@
         <v>1279</v>
       </c>
       <c r="I44" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -5877,7 +5880,7 @@
         <v>1280</v>
       </c>
       <c r="I45" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -5903,7 +5906,7 @@
         <v>1281</v>
       </c>
       <c r="I46" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -5929,7 +5932,7 @@
         <v>1282</v>
       </c>
       <c r="I47" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -5955,7 +5958,7 @@
         <v>1283</v>
       </c>
       <c r="I48" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5981,7 +5984,7 @@
         <v>1284</v>
       </c>
       <c r="I49" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -6007,7 +6010,7 @@
         <v>1283</v>
       </c>
       <c r="I50" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -6033,10 +6036,10 @@
         <v>1285</v>
       </c>
       <c r="I51" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J51" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -6062,10 +6065,10 @@
         <v>1285</v>
       </c>
       <c r="I52" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J52" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -6091,7 +6094,7 @@
         <v>1284</v>
       </c>
       <c r="I53" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -6114,10 +6117,10 @@
         <v>1010</v>
       </c>
       <c r="H54" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I54" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -6143,7 +6146,7 @@
         <v>1286</v>
       </c>
       <c r="I55" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -6169,7 +6172,7 @@
         <v>1286</v>
       </c>
       <c r="I56" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -6192,10 +6195,10 @@
         <v>1013</v>
       </c>
       <c r="H57" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I57" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -6218,10 +6221,10 @@
         <v>1014</v>
       </c>
       <c r="H58" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I58" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -6244,10 +6247,10 @@
         <v>1015</v>
       </c>
       <c r="H59" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I59" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -6273,10 +6276,10 @@
         <v>1285</v>
       </c>
       <c r="I60" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J60" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -6302,7 +6305,7 @@
         <v>1288</v>
       </c>
       <c r="I61" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -6325,10 +6328,10 @@
         <v>1018</v>
       </c>
       <c r="H62" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I62" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -6351,10 +6354,10 @@
         <v>1019</v>
       </c>
       <c r="H63" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I63" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -6377,10 +6380,10 @@
         <v>994</v>
       </c>
       <c r="H64" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I64" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -6406,7 +6409,7 @@
         <v>1290</v>
       </c>
       <c r="I65" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -6432,7 +6435,7 @@
         <v>1290</v>
       </c>
       <c r="I66" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -6458,7 +6461,7 @@
         <v>1291</v>
       </c>
       <c r="I67" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -6484,7 +6487,7 @@
         <v>1292</v>
       </c>
       <c r="I68" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -6510,7 +6513,7 @@
         <v>1270</v>
       </c>
       <c r="I69" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -6536,7 +6539,7 @@
         <v>1271</v>
       </c>
       <c r="I70" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -6562,7 +6565,7 @@
         <v>1272</v>
       </c>
       <c r="I71" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -6588,7 +6591,7 @@
         <v>1272</v>
       </c>
       <c r="I72" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -6614,7 +6617,7 @@
         <v>1382</v>
       </c>
       <c r="I73" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -6640,7 +6643,7 @@
         <v>1275</v>
       </c>
       <c r="I74" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -6666,7 +6669,7 @@
         <v>1278</v>
       </c>
       <c r="I75" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -6692,7 +6695,7 @@
         <v>1283</v>
       </c>
       <c r="I76" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -6718,7 +6721,7 @@
         <v>1283</v>
       </c>
       <c r="I77" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -6744,10 +6747,10 @@
         <v>1285</v>
       </c>
       <c r="I78" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J78" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -6773,7 +6776,7 @@
         <v>1288</v>
       </c>
       <c r="I79" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -6796,10 +6799,10 @@
         <v>1032</v>
       </c>
       <c r="H80" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I80" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
@@ -6825,7 +6828,7 @@
         <v>1290</v>
       </c>
       <c r="I81" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
@@ -6851,7 +6854,7 @@
         <v>1290</v>
       </c>
       <c r="I82" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
@@ -6877,7 +6880,7 @@
         <v>1293</v>
       </c>
       <c r="I83" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
@@ -6903,19 +6906,19 @@
         <v>1294</v>
       </c>
       <c r="I84" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="K84" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="L84" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="M84" t="s">
         <v>1295</v>
       </c>
       <c r="N84" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
@@ -6944,7 +6947,7 @@
         <v>1294</v>
       </c>
       <c r="I85" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
@@ -6970,7 +6973,7 @@
         <v>1294</v>
       </c>
       <c r="I86" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
@@ -6996,7 +6999,7 @@
         <v>1294</v>
       </c>
       <c r="I87" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
@@ -7025,7 +7028,7 @@
         <v>1295</v>
       </c>
       <c r="I88" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
@@ -7048,10 +7051,10 @@
         <v>1040</v>
       </c>
       <c r="H89" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="I89" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
@@ -7074,10 +7077,10 @@
         <v>992</v>
       </c>
       <c r="H90" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="I90" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
@@ -7100,10 +7103,10 @@
         <v>1041</v>
       </c>
       <c r="H91" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="I91" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
@@ -7126,10 +7129,10 @@
         <v>1042</v>
       </c>
       <c r="H92" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="I92" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
@@ -7152,10 +7155,10 @@
         <v>1043</v>
       </c>
       <c r="H93" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="I93" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
@@ -7178,10 +7181,10 @@
         <v>1044</v>
       </c>
       <c r="H94" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="I94" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
@@ -7204,10 +7207,10 @@
         <v>1045</v>
       </c>
       <c r="H95" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="I95" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
@@ -7233,7 +7236,7 @@
         <v>1296</v>
       </c>
       <c r="I96" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -7259,7 +7262,7 @@
         <v>1296</v>
       </c>
       <c r="I97" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -7282,10 +7285,10 @@
         <v>1047</v>
       </c>
       <c r="H98" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="I98" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -7308,10 +7311,10 @@
         <v>1048</v>
       </c>
       <c r="H99" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="I99" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -7334,10 +7337,10 @@
         <v>1049</v>
       </c>
       <c r="H100" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="I100" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -7360,10 +7363,10 @@
         <v>1050</v>
       </c>
       <c r="H101" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="I101" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -7386,10 +7389,10 @@
         <v>1051</v>
       </c>
       <c r="H102" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="I102" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -7412,10 +7415,10 @@
         <v>1052</v>
       </c>
       <c r="H103" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I103" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -7441,7 +7444,7 @@
         <v>1298</v>
       </c>
       <c r="I104" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -7467,7 +7470,7 @@
         <v>1298</v>
       </c>
       <c r="I105" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -7493,7 +7496,7 @@
         <v>1298</v>
       </c>
       <c r="I106" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -7519,7 +7522,7 @@
         <v>1298</v>
       </c>
       <c r="I107" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -7545,7 +7548,7 @@
         <v>1298</v>
       </c>
       <c r="I108" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -7571,7 +7574,7 @@
         <v>1298</v>
       </c>
       <c r="I109" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -7594,10 +7597,10 @@
         <v>1058</v>
       </c>
       <c r="H110" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I110" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -7620,10 +7623,10 @@
         <v>1057</v>
       </c>
       <c r="H111" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I111" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -7646,7 +7649,7 @@
         <v>1059</v>
       </c>
       <c r="H112" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -7669,10 +7672,10 @@
         <v>1060</v>
       </c>
       <c r="H113" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I113" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -7695,10 +7698,10 @@
         <v>1002</v>
       </c>
       <c r="H114" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I114" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -7721,13 +7724,13 @@
         <v>1061</v>
       </c>
       <c r="H115" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I115" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J115" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -7750,13 +7753,13 @@
         <v>1062</v>
       </c>
       <c r="H116" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I116" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J116" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -7779,13 +7782,13 @@
         <v>1063</v>
       </c>
       <c r="H117" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I117" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J117" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -7811,7 +7814,7 @@
         <v>1299</v>
       </c>
       <c r="I118" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -7837,7 +7840,7 @@
         <v>1300</v>
       </c>
       <c r="I119" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -7863,7 +7866,7 @@
         <v>1300</v>
       </c>
       <c r="I120" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -7889,7 +7892,7 @@
         <v>1301</v>
       </c>
       <c r="I121" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
@@ -7915,7 +7918,7 @@
         <v>1301</v>
       </c>
       <c r="I122" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -7941,7 +7944,7 @@
         <v>1301</v>
       </c>
       <c r="I123" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -7967,7 +7970,7 @@
         <v>1301</v>
       </c>
       <c r="I124" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -7993,7 +7996,7 @@
         <v>1302</v>
       </c>
       <c r="I125" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -8019,7 +8022,7 @@
         <v>1302</v>
       </c>
       <c r="I126" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
@@ -8045,7 +8048,7 @@
         <v>1302</v>
       </c>
       <c r="I127" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -8068,10 +8071,10 @@
         <v>1072</v>
       </c>
       <c r="H128" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="I128" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -8097,7 +8100,7 @@
         <v>1303</v>
       </c>
       <c r="I129" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -8123,13 +8126,13 @@
         <v>1303</v>
       </c>
       <c r="I130" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="K130" t="s">
         <v>1305</v>
       </c>
       <c r="L130" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -8155,7 +8158,7 @@
         <v>1304</v>
       </c>
       <c r="I131" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -8181,7 +8184,7 @@
         <v>1304</v>
       </c>
       <c r="I132" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -8207,7 +8210,7 @@
         <v>1304</v>
       </c>
       <c r="I133" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -8233,7 +8236,7 @@
         <v>1305</v>
       </c>
       <c r="I134" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -8259,7 +8262,7 @@
         <v>1305</v>
       </c>
       <c r="I135" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -8285,7 +8288,7 @@
         <v>1306</v>
       </c>
       <c r="I136" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -8311,7 +8314,7 @@
         <v>1306</v>
       </c>
       <c r="I137" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -8334,10 +8337,10 @@
         <v>1080</v>
       </c>
       <c r="H138" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="I138" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -8363,7 +8366,7 @@
         <v>1307</v>
       </c>
       <c r="I139" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -8389,7 +8392,7 @@
         <v>1308</v>
       </c>
       <c r="I140" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -8415,7 +8418,7 @@
         <v>1308</v>
       </c>
       <c r="I141" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -8441,7 +8444,7 @@
         <v>1309</v>
       </c>
       <c r="I142" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -8467,7 +8470,7 @@
         <v>1309</v>
       </c>
       <c r="I143" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -8493,7 +8496,7 @@
         <v>1310</v>
       </c>
       <c r="I144" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -8519,7 +8522,7 @@
         <v>1310</v>
       </c>
       <c r="I145" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -8542,10 +8545,10 @@
         <v>1085</v>
       </c>
       <c r="H146" t="s">
-        <v>1393</v>
+        <v>1440</v>
       </c>
       <c r="I146" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -8568,10 +8571,10 @@
         <v>1086</v>
       </c>
       <c r="H147" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I147" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -8594,10 +8597,10 @@
         <v>1087</v>
       </c>
       <c r="H148" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="I148" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -8620,10 +8623,10 @@
         <v>1088</v>
       </c>
       <c r="H149" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I149" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -8646,10 +8649,10 @@
         <v>1089</v>
       </c>
       <c r="H150" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I150" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -8672,10 +8675,10 @@
         <v>1090</v>
       </c>
       <c r="H151" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I151" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -8698,10 +8701,10 @@
         <v>1091</v>
       </c>
       <c r="H152" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="I152" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -8727,7 +8730,7 @@
         <v>1311</v>
       </c>
       <c r="I153" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -8753,7 +8756,7 @@
         <v>1311</v>
       </c>
       <c r="I154" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -8779,7 +8782,7 @@
         <v>1287</v>
       </c>
       <c r="I155" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -8805,7 +8808,7 @@
         <v>1287</v>
       </c>
       <c r="I156" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -8831,7 +8834,7 @@
         <v>1287</v>
       </c>
       <c r="I157" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -8854,10 +8857,10 @@
         <v>1078</v>
       </c>
       <c r="H158" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="I158" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -8880,10 +8883,10 @@
         <v>1096</v>
       </c>
       <c r="H159" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="I159" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -8906,10 +8909,10 @@
         <v>1097</v>
       </c>
       <c r="H160" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="I160" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -8932,10 +8935,10 @@
         <v>1098</v>
       </c>
       <c r="H161" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="I161" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -8958,10 +8961,10 @@
         <v>1043</v>
       </c>
       <c r="H162" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="I162" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -8984,10 +8987,10 @@
         <v>1099</v>
       </c>
       <c r="H163" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="I163" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -9010,10 +9013,10 @@
         <v>1014</v>
       </c>
       <c r="H164" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="I164" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -9036,10 +9039,10 @@
         <v>1100</v>
       </c>
       <c r="H165" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="I165" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -9062,10 +9065,10 @@
         <v>1002</v>
       </c>
       <c r="H166" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="I166" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -9088,10 +9091,10 @@
         <v>1101</v>
       </c>
       <c r="H167" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="I167" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -9117,7 +9120,7 @@
         <v>1312</v>
       </c>
       <c r="I168" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -9143,7 +9146,7 @@
         <v>1312</v>
       </c>
       <c r="I169" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -9169,7 +9172,7 @@
         <v>1312</v>
       </c>
       <c r="I170" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -9195,7 +9198,7 @@
         <v>1312</v>
       </c>
       <c r="I171" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -9218,10 +9221,10 @@
         <v>1103</v>
       </c>
       <c r="H172" t="s">
-        <v>1401</v>
+        <v>1441</v>
       </c>
       <c r="I172" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -9244,10 +9247,10 @@
         <v>1104</v>
       </c>
       <c r="H173" t="s">
-        <v>1401</v>
+        <v>1441</v>
       </c>
       <c r="I173" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -9270,10 +9273,10 @@
         <v>1105</v>
       </c>
       <c r="H174" t="s">
-        <v>1401</v>
+        <v>1441</v>
       </c>
       <c r="I174" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -9299,7 +9302,7 @@
         <v>1313</v>
       </c>
       <c r="I175" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -9322,10 +9325,10 @@
         <v>1107</v>
       </c>
       <c r="H176" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="I176" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.3">
@@ -9348,10 +9351,10 @@
         <v>1108</v>
       </c>
       <c r="H177" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="I177" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.3">
@@ -9374,10 +9377,10 @@
         <v>1109</v>
       </c>
       <c r="H178" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="I178" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.3">
@@ -9400,10 +9403,10 @@
         <v>1110</v>
       </c>
       <c r="H179" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="I179" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.3">
@@ -9426,40 +9429,40 @@
         <v>1111</v>
       </c>
       <c r="H180" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I180" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="K180" t="s">
-        <v>1401</v>
+        <v>1441</v>
       </c>
       <c r="L180" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
       <c r="M180" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="N180" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="O180" t="s">
         <v>1302</v>
       </c>
       <c r="P180" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="Q180" t="s">
         <v>1305</v>
       </c>
       <c r="R180" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="S180" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="T180" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.3">
@@ -9485,7 +9488,7 @@
         <v>1314</v>
       </c>
       <c r="I181" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.3">
@@ -9511,7 +9514,7 @@
         <v>1314</v>
       </c>
       <c r="I182" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.3">
@@ -9537,7 +9540,7 @@
         <v>1314</v>
       </c>
       <c r="I183" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.3">
@@ -9563,7 +9566,7 @@
         <v>1314</v>
       </c>
       <c r="I184" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.3">
@@ -9589,7 +9592,7 @@
         <v>1314</v>
       </c>
       <c r="I185" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.3">
@@ -9612,10 +9615,10 @@
         <v>1116</v>
       </c>
       <c r="H186" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="I186" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.3">
@@ -9638,10 +9641,10 @@
         <v>1117</v>
       </c>
       <c r="H187" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="I187" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.3">
@@ -9664,10 +9667,10 @@
         <v>1118</v>
       </c>
       <c r="H188" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="I188" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.3">
@@ -9690,10 +9693,10 @@
         <v>1119</v>
       </c>
       <c r="H189" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="I189" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.3">
@@ -9716,10 +9719,10 @@
         <v>1022</v>
       </c>
       <c r="H190" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="I190" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.3">
@@ -9742,10 +9745,10 @@
         <v>1120</v>
       </c>
       <c r="H191" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="I191" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.3">
@@ -9768,10 +9771,10 @@
         <v>1121</v>
       </c>
       <c r="H192" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="I192" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
@@ -9794,10 +9797,10 @@
         <v>992</v>
       </c>
       <c r="H193" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="I193" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
@@ -9823,7 +9826,7 @@
         <v>1316</v>
       </c>
       <c r="I194" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -9849,7 +9852,7 @@
         <v>1316</v>
       </c>
       <c r="I195" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -9875,7 +9878,7 @@
         <v>1316</v>
       </c>
       <c r="I196" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
@@ -9901,7 +9904,7 @@
         <v>1316</v>
       </c>
       <c r="I197" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
@@ -9927,7 +9930,7 @@
         <v>1317</v>
       </c>
       <c r="I198" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
@@ -9953,7 +9956,7 @@
         <v>1318</v>
       </c>
       <c r="I199" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
@@ -9979,7 +9982,7 @@
         <v>1318</v>
       </c>
       <c r="I200" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
@@ -10005,13 +10008,13 @@
         <v>1318</v>
       </c>
       <c r="I201" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="K201" t="s">
         <v>1317</v>
       </c>
       <c r="L201" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
@@ -10037,7 +10040,7 @@
         <v>1318</v>
       </c>
       <c r="I202" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
@@ -10063,7 +10066,7 @@
         <v>1318</v>
       </c>
       <c r="I203" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
@@ -10089,7 +10092,7 @@
         <v>1317</v>
       </c>
       <c r="I204" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
@@ -10115,7 +10118,7 @@
         <v>1317</v>
       </c>
       <c r="I205" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
@@ -10141,7 +10144,7 @@
         <v>1319</v>
       </c>
       <c r="I206" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
@@ -10167,7 +10170,7 @@
         <v>1319</v>
       </c>
       <c r="I207" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
@@ -10193,7 +10196,7 @@
         <v>1319</v>
       </c>
       <c r="I208" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -10219,7 +10222,7 @@
         <v>1319</v>
       </c>
       <c r="I209" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -10245,7 +10248,7 @@
         <v>1319</v>
       </c>
       <c r="I210" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -10271,7 +10274,7 @@
         <v>1277</v>
       </c>
       <c r="I211" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -10297,7 +10300,7 @@
         <v>1320</v>
       </c>
       <c r="I212" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -10323,7 +10326,7 @@
         <v>1320</v>
       </c>
       <c r="I213" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -10349,7 +10352,7 @@
         <v>1320</v>
       </c>
       <c r="I214" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -10375,10 +10378,10 @@
         <v>1321</v>
       </c>
       <c r="I215" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J215" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -10404,10 +10407,10 @@
         <v>1321</v>
       </c>
       <c r="I216" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J216" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -10433,10 +10436,10 @@
         <v>1321</v>
       </c>
       <c r="I217" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J217" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -10462,10 +10465,10 @@
         <v>1321</v>
       </c>
       <c r="I218" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J218" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -10491,10 +10494,10 @@
         <v>1321</v>
       </c>
       <c r="I219" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J219" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -10517,10 +10520,10 @@
         <v>1140</v>
       </c>
       <c r="H220" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="I220" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -10543,10 +10546,10 @@
         <v>1118</v>
       </c>
       <c r="H221" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="I221" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -10569,10 +10572,10 @@
         <v>1141</v>
       </c>
       <c r="H222" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="I222" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -10598,7 +10601,7 @@
         <v>1322</v>
       </c>
       <c r="I223" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -10624,7 +10627,7 @@
         <v>1322</v>
       </c>
       <c r="I224" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
@@ -10650,7 +10653,7 @@
         <v>1322</v>
       </c>
       <c r="I225" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
@@ -10676,7 +10679,7 @@
         <v>1322</v>
       </c>
       <c r="I226" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
@@ -10702,7 +10705,7 @@
         <v>1322</v>
       </c>
       <c r="I227" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
@@ -10728,7 +10731,7 @@
         <v>1323</v>
       </c>
       <c r="I228" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
@@ -10754,7 +10757,7 @@
         <v>1323</v>
       </c>
       <c r="I229" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
@@ -10780,7 +10783,7 @@
         <v>1323</v>
       </c>
       <c r="I230" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
@@ -10806,7 +10809,7 @@
         <v>1324</v>
       </c>
       <c r="I231" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
@@ -10832,7 +10835,7 @@
         <v>1325</v>
       </c>
       <c r="I232" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
@@ -10858,7 +10861,7 @@
         <v>1324</v>
       </c>
       <c r="I233" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
@@ -10884,7 +10887,7 @@
         <v>1325</v>
       </c>
       <c r="I234" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
@@ -10910,7 +10913,7 @@
         <v>1326</v>
       </c>
       <c r="I235" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
@@ -10936,7 +10939,7 @@
         <v>1326</v>
       </c>
       <c r="I236" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
@@ -10962,7 +10965,7 @@
         <v>1324</v>
       </c>
       <c r="I237" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
@@ -10985,10 +10988,10 @@
         <v>1150</v>
       </c>
       <c r="H238" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I238" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
@@ -11014,7 +11017,7 @@
         <v>1327</v>
       </c>
       <c r="I239" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
@@ -11040,7 +11043,7 @@
         <v>1327</v>
       </c>
       <c r="I240" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -11066,7 +11069,7 @@
         <v>1271</v>
       </c>
       <c r="I241" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -11092,7 +11095,7 @@
         <v>1271</v>
       </c>
       <c r="I242" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -11115,10 +11118,10 @@
         <v>1153</v>
       </c>
       <c r="H243" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I243" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -11141,10 +11144,10 @@
         <v>1154</v>
       </c>
       <c r="H244" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="I244" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -11167,10 +11170,10 @@
         <v>1155</v>
       </c>
       <c r="H245" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="I245" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -11196,7 +11199,7 @@
         <v>1271</v>
       </c>
       <c r="I246" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -11222,7 +11225,7 @@
         <v>1271</v>
       </c>
       <c r="I247" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -11248,7 +11251,7 @@
         <v>1326</v>
       </c>
       <c r="I248" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -11274,7 +11277,7 @@
         <v>1325</v>
       </c>
       <c r="I249" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -11300,7 +11303,7 @@
         <v>1324</v>
       </c>
       <c r="I250" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -11323,10 +11326,10 @@
         <v>1032</v>
       </c>
       <c r="H251" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I251" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -11352,7 +11355,7 @@
         <v>1324</v>
       </c>
       <c r="I252" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -11378,7 +11381,7 @@
         <v>1328</v>
       </c>
       <c r="I253" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -11404,7 +11407,7 @@
         <v>1324</v>
       </c>
       <c r="I254" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -11427,10 +11430,10 @@
         <v>1080</v>
       </c>
       <c r="H255" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I255" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -11456,7 +11459,7 @@
         <v>1329</v>
       </c>
       <c r="I256" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11482,7 +11485,7 @@
         <v>1330</v>
       </c>
       <c r="I257" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11508,7 +11511,7 @@
         <v>1330</v>
       </c>
       <c r="I258" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11534,7 +11537,7 @@
         <v>1330</v>
       </c>
       <c r="I259" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11560,7 +11563,7 @@
         <v>1330</v>
       </c>
       <c r="I260" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11586,7 +11589,7 @@
         <v>1330</v>
       </c>
       <c r="I261" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11612,7 +11615,7 @@
         <v>1330</v>
       </c>
       <c r="I262" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11638,7 +11641,7 @@
         <v>1292</v>
       </c>
       <c r="I263" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11664,7 +11667,7 @@
         <v>1331</v>
       </c>
       <c r="I264" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11690,7 +11693,7 @@
         <v>1331</v>
       </c>
       <c r="I265" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11716,7 +11719,7 @@
         <v>1331</v>
       </c>
       <c r="I266" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11742,7 +11745,7 @@
         <v>1292</v>
       </c>
       <c r="I267" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11768,7 +11771,7 @@
         <v>1292</v>
       </c>
       <c r="I268" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11794,7 +11797,7 @@
         <v>1292</v>
       </c>
       <c r="I269" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11820,7 +11823,7 @@
         <v>1267</v>
       </c>
       <c r="I270" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11846,7 +11849,7 @@
         <v>1267</v>
       </c>
       <c r="I271" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11872,7 +11875,7 @@
         <v>1297</v>
       </c>
       <c r="I272" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -11898,7 +11901,7 @@
         <v>1332</v>
       </c>
       <c r="I273" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -11924,7 +11927,7 @@
         <v>1332</v>
       </c>
       <c r="I274" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -11950,7 +11953,7 @@
         <v>1332</v>
       </c>
       <c r="I275" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -11976,7 +11979,7 @@
         <v>1297</v>
       </c>
       <c r="I276" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -12002,7 +12005,7 @@
         <v>1331</v>
       </c>
       <c r="I277" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -12028,7 +12031,7 @@
         <v>1331</v>
       </c>
       <c r="I278" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -12054,7 +12057,7 @@
         <v>1333</v>
       </c>
       <c r="I279" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -12080,7 +12083,7 @@
         <v>1333</v>
       </c>
       <c r="I280" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -12103,10 +12106,10 @@
         <v>1109</v>
       </c>
       <c r="H281" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="I281" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -12132,7 +12135,7 @@
         <v>1334</v>
       </c>
       <c r="I282" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -12155,10 +12158,10 @@
         <v>1107</v>
       </c>
       <c r="H283" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="I283" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -12181,10 +12184,10 @@
         <v>1071</v>
       </c>
       <c r="H284" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="I284" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -12210,7 +12213,7 @@
         <v>1333</v>
       </c>
       <c r="I285" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -12236,7 +12239,7 @@
         <v>1333</v>
       </c>
       <c r="I286" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -12262,7 +12265,7 @@
         <v>1333</v>
       </c>
       <c r="I287" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -12288,7 +12291,7 @@
         <v>1331</v>
       </c>
       <c r="I288" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -12314,7 +12317,7 @@
         <v>1331</v>
       </c>
       <c r="I289" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -12337,10 +12340,10 @@
         <v>1171</v>
       </c>
       <c r="H290" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="I290" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -12369,7 +12372,7 @@
         <v>1289</v>
       </c>
       <c r="I291" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -12392,10 +12395,10 @@
         <v>1010</v>
       </c>
       <c r="H292" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="I292" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -12421,7 +12424,7 @@
         <v>1289</v>
       </c>
       <c r="I293" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -12447,7 +12450,7 @@
         <v>1289</v>
       </c>
       <c r="I294" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -12473,7 +12476,7 @@
         <v>1336</v>
       </c>
       <c r="I295" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -12499,7 +12502,7 @@
         <v>1336</v>
       </c>
       <c r="I296" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -12522,7 +12525,7 @@
         <v>1173</v>
       </c>
       <c r="H297" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -12545,7 +12548,7 @@
         <v>1174</v>
       </c>
       <c r="H298" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -12568,10 +12571,10 @@
         <v>1009</v>
       </c>
       <c r="H299" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="I299" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -12597,7 +12600,7 @@
         <v>1337</v>
       </c>
       <c r="I300" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -12623,7 +12626,7 @@
         <v>1337</v>
       </c>
       <c r="I301" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -12652,7 +12655,7 @@
         <v>1337</v>
       </c>
       <c r="I302" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -12675,10 +12678,10 @@
         <v>968</v>
       </c>
       <c r="H303" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="I303" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -12701,10 +12704,10 @@
         <v>1109</v>
       </c>
       <c r="H304" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="I304" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12730,7 +12733,7 @@
         <v>1289</v>
       </c>
       <c r="I305" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12753,7 +12756,7 @@
         <v>979</v>
       </c>
       <c r="H306" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12779,7 +12782,7 @@
         <v>1337</v>
       </c>
       <c r="I307" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12805,7 +12808,7 @@
         <v>1337</v>
       </c>
       <c r="I308" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12831,7 +12834,7 @@
         <v>1289</v>
       </c>
       <c r="I309" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12857,7 +12860,7 @@
         <v>1289</v>
       </c>
       <c r="I310" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12880,7 +12883,7 @@
         <v>1176</v>
       </c>
       <c r="H311" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -12906,7 +12909,7 @@
         <v>1337</v>
       </c>
       <c r="I312" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -12932,7 +12935,7 @@
         <v>1338</v>
       </c>
       <c r="I313" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -12961,7 +12964,7 @@
         <v>1338</v>
       </c>
       <c r="I314" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -12990,7 +12993,7 @@
         <v>1338</v>
       </c>
       <c r="I315" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -13016,7 +13019,7 @@
         <v>1338</v>
       </c>
       <c r="I316" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -13042,7 +13045,7 @@
         <v>1338</v>
       </c>
       <c r="I317" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -13068,7 +13071,7 @@
         <v>1338</v>
       </c>
       <c r="I318" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -13094,7 +13097,7 @@
         <v>1339</v>
       </c>
       <c r="I319" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -13120,7 +13123,7 @@
         <v>1339</v>
       </c>
       <c r="I320" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -13146,7 +13149,7 @@
         <v>1340</v>
       </c>
       <c r="I321" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -13172,7 +13175,7 @@
         <v>1341</v>
       </c>
       <c r="I322" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -13198,7 +13201,7 @@
         <v>1340</v>
       </c>
       <c r="I323" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -13224,7 +13227,7 @@
         <v>1339</v>
       </c>
       <c r="I324" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -13250,7 +13253,7 @@
         <v>1341</v>
       </c>
       <c r="I325" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -13276,7 +13279,7 @@
         <v>1341</v>
       </c>
       <c r="I326" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -13302,7 +13305,7 @@
         <v>1340</v>
       </c>
       <c r="I327" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -13328,7 +13331,7 @@
         <v>1339</v>
       </c>
       <c r="I328" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -13354,7 +13357,7 @@
         <v>1340</v>
       </c>
       <c r="I329" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -13380,7 +13383,7 @@
         <v>1297</v>
       </c>
       <c r="I330" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -13403,10 +13406,10 @@
         <v>1188</v>
       </c>
       <c r="H331" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="I331" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -13432,7 +13435,7 @@
         <v>1268</v>
       </c>
       <c r="I332" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -13455,10 +13458,10 @@
         <v>1190</v>
       </c>
       <c r="H333" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="I333" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13484,7 +13487,7 @@
         <v>1332</v>
       </c>
       <c r="I334" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13507,10 +13510,10 @@
         <v>1192</v>
       </c>
       <c r="H335" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="I335" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13536,7 +13539,7 @@
         <v>1342</v>
       </c>
       <c r="I336" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -13559,10 +13562,10 @@
         <v>1180</v>
       </c>
       <c r="H337" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="I337" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -13585,10 +13588,10 @@
         <v>1046</v>
       </c>
       <c r="H338" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="I338" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -13614,7 +13617,7 @@
         <v>1343</v>
       </c>
       <c r="I339" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -13640,7 +13643,7 @@
         <v>1344</v>
       </c>
       <c r="I340" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -13666,7 +13669,7 @@
         <v>1342</v>
       </c>
       <c r="I341" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -13692,7 +13695,7 @@
         <v>1345</v>
       </c>
       <c r="I342" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -13718,7 +13721,7 @@
         <v>1343</v>
       </c>
       <c r="I343" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -13741,10 +13744,10 @@
         <v>1187</v>
       </c>
       <c r="H344" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="I344" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -13767,10 +13770,10 @@
         <v>1067</v>
       </c>
       <c r="H345" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="I345" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -13793,10 +13796,10 @@
         <v>1079</v>
       </c>
       <c r="H346" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="I346" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -13822,7 +13825,7 @@
         <v>1342</v>
       </c>
       <c r="I347" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -13848,7 +13851,7 @@
         <v>1343</v>
       </c>
       <c r="I348" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -13871,10 +13874,10 @@
         <v>1198</v>
       </c>
       <c r="H349" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="I349" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -13897,10 +13900,10 @@
         <v>1199</v>
       </c>
       <c r="H350" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="I350" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -13926,7 +13929,7 @@
         <v>1346</v>
       </c>
       <c r="I351" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -13952,7 +13955,7 @@
         <v>1347</v>
       </c>
       <c r="I352" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
@@ -13978,10 +13981,10 @@
         <v>1348</v>
       </c>
       <c r="I353" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="J353" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
@@ -14007,10 +14010,10 @@
         <v>1348</v>
       </c>
       <c r="I354" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="J354" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
@@ -14036,7 +14039,7 @@
         <v>1274</v>
       </c>
       <c r="I355" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
@@ -14062,7 +14065,7 @@
         <v>1274</v>
       </c>
       <c r="I356" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
@@ -14088,7 +14091,7 @@
         <v>1274</v>
       </c>
       <c r="I357" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
@@ -14114,7 +14117,7 @@
         <v>1347</v>
       </c>
       <c r="I358" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
@@ -14140,10 +14143,10 @@
         <v>1348</v>
       </c>
       <c r="I359" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="J359" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
@@ -14169,7 +14172,7 @@
         <v>1349</v>
       </c>
       <c r="I360" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
@@ -14195,7 +14198,7 @@
         <v>1349</v>
       </c>
       <c r="I361" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
@@ -14221,7 +14224,7 @@
         <v>1349</v>
       </c>
       <c r="I362" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
@@ -14247,7 +14250,7 @@
         <v>1315</v>
       </c>
       <c r="I363" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.3">
@@ -14273,7 +14276,7 @@
         <v>1315</v>
       </c>
       <c r="I364" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
@@ -14299,7 +14302,7 @@
         <v>1292</v>
       </c>
       <c r="I365" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
@@ -14325,7 +14328,7 @@
         <v>1350</v>
       </c>
       <c r="I366" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
@@ -14348,13 +14351,13 @@
         <v>1203</v>
       </c>
       <c r="H367" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="I367" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J367" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
@@ -14377,13 +14380,13 @@
         <v>1204</v>
       </c>
       <c r="H368" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="I368" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J368" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.3">
@@ -14406,13 +14409,13 @@
         <v>1027</v>
       </c>
       <c r="H369" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="I369" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J369" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="K369" t="s">
         <v>1351</v>
@@ -14441,7 +14444,7 @@
         <v>1351</v>
       </c>
       <c r="I370" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.3">
@@ -14467,7 +14470,7 @@
         <v>1351</v>
       </c>
       <c r="I371" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.3">
@@ -14493,7 +14496,7 @@
         <v>1351</v>
       </c>
       <c r="I372" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.3">
@@ -14519,7 +14522,7 @@
         <v>1352</v>
       </c>
       <c r="I373" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.3">
@@ -14545,7 +14548,7 @@
         <v>1352</v>
       </c>
       <c r="I374" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.3">
@@ -14574,7 +14577,7 @@
         <v>1353</v>
       </c>
       <c r="I375" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.3">
@@ -14603,7 +14606,7 @@
         <v>1353</v>
       </c>
       <c r="I376" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.3">
@@ -14632,7 +14635,7 @@
         <v>1353</v>
       </c>
       <c r="I377" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
@@ -14655,10 +14658,10 @@
         <v>1211</v>
       </c>
       <c r="H378" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="I378" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.3">
@@ -14681,10 +14684,10 @@
         <v>1043</v>
       </c>
       <c r="H379" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="I379" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.3">
@@ -14707,10 +14710,10 @@
         <v>1212</v>
       </c>
       <c r="H380" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="I380" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.3">
@@ -14733,10 +14736,10 @@
         <v>1213</v>
       </c>
       <c r="H381" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="I381" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.3">
@@ -14759,10 +14762,10 @@
         <v>1214</v>
       </c>
       <c r="H382" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="I382" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.3">
@@ -14785,10 +14788,10 @@
         <v>1063</v>
       </c>
       <c r="H383" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="I383" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.3">
@@ -14811,10 +14814,10 @@
         <v>1215</v>
       </c>
       <c r="H384" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="I384" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.3">
@@ -14837,7 +14840,7 @@
         <v>1216</v>
       </c>
       <c r="H385" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.3">
@@ -14860,7 +14863,7 @@
         <v>1217</v>
       </c>
       <c r="H386" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.3">
@@ -14886,7 +14889,7 @@
         <v>1354</v>
       </c>
       <c r="I387" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.3">
@@ -14912,7 +14915,7 @@
         <v>1354</v>
       </c>
       <c r="I388" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.3">
@@ -14938,7 +14941,7 @@
         <v>1355</v>
       </c>
       <c r="I389" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.3">
@@ -14964,7 +14967,7 @@
         <v>1356</v>
       </c>
       <c r="I390" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.3">
@@ -14990,7 +14993,7 @@
         <v>1356</v>
       </c>
       <c r="I391" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.3">
@@ -15016,7 +15019,7 @@
         <v>1357</v>
       </c>
       <c r="I392" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.3">
@@ -15042,7 +15045,7 @@
         <v>1357</v>
       </c>
       <c r="I393" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.3">
@@ -15071,7 +15074,7 @@
         <v>1358</v>
       </c>
       <c r="I394" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.3">
@@ -15097,7 +15100,7 @@
         <v>1358</v>
       </c>
       <c r="I395" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.3">
@@ -15123,7 +15126,7 @@
         <v>1358</v>
       </c>
       <c r="I396" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.3">
@@ -15149,7 +15152,7 @@
         <v>1358</v>
       </c>
       <c r="I397" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.3">
@@ -15175,7 +15178,7 @@
         <v>1358</v>
       </c>
       <c r="I398" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.3">
@@ -15201,13 +15204,13 @@
         <v>1358</v>
       </c>
       <c r="I399" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="K399" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="L399" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.3">
@@ -15233,13 +15236,13 @@
         <v>1358</v>
       </c>
       <c r="I400" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="K400" t="s">
         <v>1335</v>
       </c>
       <c r="L400" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -15265,7 +15268,7 @@
         <v>1358</v>
       </c>
       <c r="I401" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -15291,7 +15294,7 @@
         <v>1359</v>
       </c>
       <c r="I402" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -15317,7 +15320,7 @@
         <v>1359</v>
       </c>
       <c r="I403" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -15343,7 +15346,7 @@
         <v>1359</v>
       </c>
       <c r="I404" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -15369,7 +15372,7 @@
         <v>1359</v>
       </c>
       <c r="I405" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -15395,7 +15398,7 @@
         <v>1359</v>
       </c>
       <c r="I406" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -15421,7 +15424,7 @@
         <v>1359</v>
       </c>
       <c r="I407" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -15447,7 +15450,7 @@
         <v>1359</v>
       </c>
       <c r="I408" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -15473,7 +15476,7 @@
         <v>1360</v>
       </c>
       <c r="I409" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -15496,10 +15499,10 @@
         <v>1229</v>
       </c>
       <c r="H410" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="I410" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -15525,7 +15528,7 @@
         <v>1335</v>
       </c>
       <c r="I411" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -15551,7 +15554,7 @@
         <v>1335</v>
       </c>
       <c r="I412" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -15577,7 +15580,7 @@
         <v>1361</v>
       </c>
       <c r="I413" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -15603,7 +15606,7 @@
         <v>1362</v>
       </c>
       <c r="I414" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -15632,7 +15635,7 @@
         <v>1363</v>
       </c>
       <c r="I415" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -15661,7 +15664,7 @@
         <v>1363</v>
       </c>
       <c r="I416" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
@@ -15690,7 +15693,7 @@
         <v>1363</v>
       </c>
       <c r="I417" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.3">
@@ -15719,7 +15722,7 @@
         <v>1363</v>
       </c>
       <c r="I418" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.3">
@@ -15748,7 +15751,7 @@
         <v>1363</v>
       </c>
       <c r="I419" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.3">
@@ -15777,7 +15780,7 @@
         <v>1363</v>
       </c>
       <c r="I420" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.3">
@@ -15806,7 +15809,7 @@
         <v>1363</v>
       </c>
       <c r="I421" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.3">
@@ -15835,7 +15838,7 @@
         <v>1363</v>
       </c>
       <c r="I422" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.3">
@@ -15864,7 +15867,7 @@
         <v>1363</v>
       </c>
       <c r="I423" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.3">
@@ -15893,7 +15896,7 @@
         <v>1363</v>
       </c>
       <c r="I424" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.3">
@@ -15919,7 +15922,7 @@
         <v>1364</v>
       </c>
       <c r="I425" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.3">
@@ -15948,7 +15951,7 @@
         <v>1365</v>
       </c>
       <c r="I426" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.3">
@@ -15977,7 +15980,7 @@
         <v>1365</v>
       </c>
       <c r="I427" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.3">
@@ -16006,7 +16009,7 @@
         <v>1365</v>
       </c>
       <c r="I428" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.3">
@@ -16035,7 +16038,7 @@
         <v>1365</v>
       </c>
       <c r="I429" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.3">
@@ -16064,7 +16067,7 @@
         <v>1365</v>
       </c>
       <c r="I430" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.3">
@@ -16093,7 +16096,7 @@
         <v>1365</v>
       </c>
       <c r="I431" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.3">
@@ -16122,7 +16125,7 @@
         <v>1365</v>
       </c>
       <c r="I432" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.3">
@@ -16151,7 +16154,7 @@
         <v>1366</v>
       </c>
       <c r="I433" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.3">
@@ -16180,7 +16183,7 @@
         <v>1366</v>
       </c>
       <c r="I434" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.3">
@@ -16206,10 +16209,10 @@
         <v>1288</v>
       </c>
       <c r="I435" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J435" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.3">
@@ -16235,10 +16238,10 @@
         <v>1288</v>
       </c>
       <c r="I436" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J436" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.3">
@@ -16264,10 +16267,10 @@
         <v>1288</v>
       </c>
       <c r="I437" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J437" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.3">
@@ -16293,10 +16296,10 @@
         <v>1288</v>
       </c>
       <c r="I438" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J438" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.3">
@@ -16322,16 +16325,16 @@
         <v>1288</v>
       </c>
       <c r="I439" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J439" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="K439" t="s">
         <v>1368</v>
       </c>
       <c r="L439" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.3">
@@ -16357,16 +16360,16 @@
         <v>1288</v>
       </c>
       <c r="I440" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="J440" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="K440" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="L440" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.3">
@@ -16389,10 +16392,10 @@
         <v>1109</v>
       </c>
       <c r="H441" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="I441" t="s">
-        <v>1429</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.3">
@@ -16418,7 +16421,7 @@
         <v>1367</v>
       </c>
       <c r="I442" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.3">
@@ -16444,7 +16447,7 @@
         <v>1368</v>
       </c>
       <c r="I443" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.3">
@@ -16467,10 +16470,10 @@
         <v>1246</v>
       </c>
       <c r="H444" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="I444" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.3">
@@ -16493,10 +16496,10 @@
         <v>1247</v>
       </c>
       <c r="H445" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="I445" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.3">
@@ -16519,10 +16522,10 @@
         <v>1248</v>
       </c>
       <c r="H446" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="I446" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.3">
@@ -16545,10 +16548,10 @@
         <v>1249</v>
       </c>
       <c r="H447" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="I447" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.3">
@@ -16571,10 +16574,10 @@
         <v>1250</v>
       </c>
       <c r="H448" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="I448" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.3">
@@ -16597,10 +16600,10 @@
         <v>1251</v>
       </c>
       <c r="H449" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="I449" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.3">
@@ -16626,7 +16629,7 @@
         <v>1369</v>
       </c>
       <c r="I450" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.3">
@@ -16652,7 +16655,7 @@
         <v>1369</v>
       </c>
       <c r="I451" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.3">
@@ -16678,7 +16681,7 @@
         <v>1369</v>
       </c>
       <c r="I452" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.3">
@@ -16704,7 +16707,7 @@
         <v>1369</v>
       </c>
       <c r="I453" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.3">
@@ -16730,7 +16733,7 @@
         <v>1369</v>
       </c>
       <c r="I454" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.3">
@@ -16756,7 +16759,7 @@
         <v>1370</v>
       </c>
       <c r="I455" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.3">
@@ -16782,7 +16785,7 @@
         <v>1371</v>
       </c>
       <c r="I456" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.3">
@@ -16808,7 +16811,7 @@
         <v>1372</v>
       </c>
       <c r="I457" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.3">
@@ -16837,7 +16840,7 @@
         <v>1373</v>
       </c>
       <c r="I458" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.3">
@@ -16863,13 +16866,13 @@
         <v>1373</v>
       </c>
       <c r="I459" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="K459" t="s">
         <v>1375</v>
       </c>
       <c r="L459" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.3">
@@ -16895,16 +16898,16 @@
         <v>1373</v>
       </c>
       <c r="I460" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="K460" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="M460" t="s">
         <v>1375</v>
       </c>
       <c r="N460" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.3">
@@ -16930,7 +16933,7 @@
         <v>1373</v>
       </c>
       <c r="I461" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.3">
@@ -16956,7 +16959,7 @@
         <v>1373</v>
       </c>
       <c r="I462" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.3">
@@ -16979,10 +16982,10 @@
         <v>1259</v>
       </c>
       <c r="H463" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="I463" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.3">
@@ -17005,10 +17008,10 @@
         <v>1109</v>
       </c>
       <c r="H464" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="I464" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.3">
@@ -17031,10 +17034,10 @@
         <v>1002</v>
       </c>
       <c r="H465" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="I465" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.3">
@@ -17060,7 +17063,7 @@
         <v>1374</v>
       </c>
       <c r="I466" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.3">
@@ -17086,7 +17089,7 @@
         <v>1375</v>
       </c>
       <c r="I467" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.3">
@@ -17109,10 +17112,10 @@
         <v>1109</v>
       </c>
       <c r="H468" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="I468" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.3">
@@ -17138,7 +17141,7 @@
         <v>1376</v>
       </c>
       <c r="I469" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.3">
@@ -17164,7 +17167,7 @@
         <v>1376</v>
       </c>
       <c r="I470" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.3">
@@ -17190,7 +17193,7 @@
         <v>1377</v>
       </c>
       <c r="I471" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.3">
@@ -17216,7 +17219,7 @@
         <v>1377</v>
       </c>
       <c r="I472" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.3">
@@ -17242,7 +17245,7 @@
         <v>1377</v>
       </c>
       <c r="I473" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.3">
@@ -17268,7 +17271,7 @@
         <v>1377</v>
       </c>
       <c r="I474" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.3">
@@ -17294,7 +17297,7 @@
         <v>1377</v>
       </c>
       <c r="I475" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.3">
@@ -17320,7 +17323,7 @@
         <v>1377</v>
       </c>
       <c r="I476" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.3">
@@ -17346,7 +17349,7 @@
         <v>1378</v>
       </c>
       <c r="I477" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.3">
@@ -17372,7 +17375,7 @@
         <v>1379</v>
       </c>
       <c r="I478" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.3">
@@ -17398,7 +17401,7 @@
         <v>1380</v>
       </c>
       <c r="I479" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.3">
@@ -17424,7 +17427,7 @@
         <v>1330</v>
       </c>
       <c r="I480" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
     </row>
   </sheetData>
